--- a/src/main/java/Reportes/Usuarios.xlsx
+++ b/src/main/java/Reportes/Usuarios.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Sistema de Registro de Ingreso Y Salidas del Terminal Terrestre El Chimbador</t>
   </si>
@@ -60,36 +60,6 @@
   </si>
   <si>
     <t>axel123</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Yahir Lian</t>
-  </si>
-  <si>
-    <t>Yahir</t>
-  </si>
-  <si>
-    <t>yahir123</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Isaac Takamura</t>
-  </si>
-  <si>
-    <t>isa</t>
-  </si>
-  <si>
-    <t>isa1234</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -215,7 +185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F11"/>
+  <dimension ref="A2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" zoomScale="110"/>
   </sheetViews>
@@ -298,46 +268,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:K3"/>
